--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjob0167</t>
+    <t>Automationjobdigital1007cbf</t>
   </si>
   <si>
     <t>8</t>
@@ -996,13 +996,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital1007cbf</t>
+    <t>Automationjobdigital1107cbf</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital1107cbf</t>
+    <t>Automationjobdigital1107cbf01</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital1107cbf01</t>
+    <t>Automationjobdigital1107cbf02</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital1107cbf02</t>
+    <t>Automationjobdigital1107cbf03</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital1107cbf03</t>
+    <t>Automationjobdigital1307cbf00</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital1307cbf00</t>
+    <t>Automationjobdigital2107cbf04</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2107cbf04</t>
+    <t>Automationjobdigital2307cbf04</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2307cbf04</t>
+    <t>Automationjobdigital2307cbf48</t>
   </si>
   <si>
     <t>8</t>
@@ -239,7 +239,7 @@
     <t>test</t>
   </si>
   <si>
-    <t>CPC</t>
+    <t>CPM</t>
   </si>
   <si>
     <t>1</t>
@@ -1258,7 +1258,7 @@
   <sheetPr/>
   <dimension ref="A1:BO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2307cbf48</t>
+    <t>Automationjobdigital2407cbf05</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407cbf05</t>
+    <t>Automationjobdigital2407cbf07</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407cbf07</t>
+    <t>Automationjobdigital2407cbf08</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407cbf08</t>
+    <t>Automationjobdigital2407cbf09</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407cbf09</t>
+    <t>Automationjobdigital2407cbf10</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407cbf10</t>
+    <t>Automationjobdigital2507cbf01</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2507cbf01</t>
+    <t>Automationjobdigital2507cbf04</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2507cbf04</t>
+    <t>Automationjobdigital2507cbf06</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2507cbf06</t>
+    <t>Automationjobdigital2507cbf07</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2507cbf07</t>
+    <t>Automationjobdigital2507cbf08</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2507cbf08</t>
+    <t>Automationjobdigital2507cbf09</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2507cbf09</t>
+    <t>Automationjobdigital2507cbf10</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2507cbf10</t>
+    <t>Automationjobdigital2507cbf11</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2507cbf11</t>
+    <t>Automationjobdigital2507cbf12</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2507cbf12</t>
+    <t>Automationjobdigital2507cbf13</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2507cbf13</t>
+    <t>Automationjobdigital2507cbf14</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2507cbf14</t>
+    <t>Automationjobdigital2507cbf15</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2507cbf15</t>
+    <t>Automationjobdigital2507cbf16</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2507cbf16</t>
+    <t>Automationjobdigital2507cbf17</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2507cbf17</t>
+    <t>Automationjobdigital2907cbf17</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2907cbf17</t>
+    <t>Automationjobdigital2907cbf18</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2907cbf18</t>
+    <t>Automationjobdigital2907cbf19</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2907cbf19</t>
+    <t>Automationjobdigital2907cbf20</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2907cbf20</t>
+    <t>Automationjobdigital2907cbf21</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2907cbf21</t>
+    <t>Automationjobdigital2907cbf22</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2907cbf22</t>
+    <t>Automationjobdigital2907cbf23</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2907cbf23</t>
+    <t>Automationjobdigital2907cbf24</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2907cbf24</t>
+    <t>Automationjobdigital2907cbf25</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2907cbf25</t>
+    <t>Automationjobdigital2907cbf26</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2907cbf26</t>
+    <t>Automationjobdigital0108cbf26</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital0108cbf26</t>
+    <t>Automationjobdigital0308cbf26</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital0308cbf26</t>
+    <t>Automationjobdigital0408cbf26</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital0408cbf26</t>
+    <t>Automationjobdigital0408cbf27</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital0408cbf27</t>
+    <t>Automationjobdigital0508cbf27</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital0508cbf27</t>
+    <t>Automationjobdigital0508cbf28</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital0508cbf28</t>
+    <t>Automationjobdigital0508cbf29</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital0508cbf29</t>
+    <t>Automationjobdigital0508cbf33</t>
   </si>
   <si>
     <t>8</t>
@@ -1258,7 +1258,7 @@
   <sheetPr/>
   <dimension ref="A1:BO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital0508cbf33</t>
+    <t>Automationjobdigital0508cbf34</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital0508cbf34</t>
+    <t>Automationjobdigital0608cbf00</t>
   </si>
   <si>
     <t>8</t>
@@ -248,7 +248,7 @@
     <t>1000</t>
   </si>
   <si>
-    <t>facebook ireland limited</t>
+    <t>facebook ireland</t>
   </si>
   <si>
     <t>Ad-Network</t>
@@ -1258,7 +1258,7 @@
   <sheetPr/>
   <dimension ref="A1:BO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital0608cbf00</t>
+    <t>Automationjobdigital0708cbf00</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproCBF.xlsx
+++ b/DigitalproCBF.xlsx
@@ -239,7 +239,7 @@
     <t>test</t>
   </si>
   <si>
-    <t>CPM</t>
+    <t>CPC</t>
   </si>
   <si>
     <t>1</t>
@@ -1258,8 +1258,8 @@
   <sheetPr/>
   <dimension ref="A1:BO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
